--- a/2em/01-lop/aula08/TestesUnitarios.xlsx
+++ b/2em/01-lop/aula08/TestesUnitarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\01-lop\aula08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F7B4F4-C663-45C2-9950-69B25D79FE96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A1CEF5-ADB2-411A-8D00-0BCDC9369244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6C743252-EAAD-4035-B269-88524CC509CB}"/>
   </bookViews>
@@ -524,7 +524,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2em/01-lop/aula08/TestesUnitarios.xlsx
+++ b/2em/01-lop/aula08/TestesUnitarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\01-lop\aula08\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A1CEF5-ADB2-411A-8D00-0BCDC9369244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F83A2F4-C307-476F-AD36-F3BC36AEDE27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{6C743252-EAAD-4035-B269-88524CC509CB}"/>
   </bookViews>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66FB527-6F9D-415D-A65A-3EE43B3EEB75}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +670,7 @@
         <v>5</v>
       </c>
       <c r="H8" s="5">
-        <f>E8-H7</f>
+        <f>A2-E7-H7</f>
         <v>4135.6845000000003</v>
       </c>
       <c r="I8" s="9"/>
